--- a/com.expedia/src/test/resources/ExpediaTestData.xlsx
+++ b/com.expedia/src/test/resources/ExpediaTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdosa\IdeaProjects\Selenium_Framework_Team2\com.expedia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF707CF-55F4-490C-B7AC-4A3BF949060C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B9E762-3E7D-4997-8E68-D60B7616BDA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{73ACEE84-31D7-4274-B63B-F3261A714B87}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7005" firstSheet="1" activeTab="3" xr2:uid="{73ACEE84-31D7-4274-B63B-F3261A714B87}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryCodes" sheetId="1" r:id="rId1"/>
     <sheet name="YourNextDestTitles" sheetId="2" r:id="rId2"/>
     <sheet name="SwitchRoutine" sheetId="3" r:id="rId3"/>
+    <sheet name="FlightClass" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Afghanistan +93</t>
   </si>
@@ -768,6 +769,18 @@
   </si>
   <si>
     <t>Richmond (and vicinity), Virginia, United States of America Hotel Search Results</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Premium economy</t>
+  </si>
+  <si>
+    <t>Business class</t>
+  </si>
+  <si>
+    <t>First class</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59147BC8-B8CA-403E-B3CE-E6CA27B65018}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2398,4 +2411,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC658FDB-DBF6-4782-B764-00A3E0CE5F54}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>